--- a/CourseCardSystem/CourseCardFramework/SimulatorRead.xlsx
+++ b/CourseCardSystem/CourseCardFramework/SimulatorRead.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC6DFB1-31F9-A84D-BDF4-E2DCA528352A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43120C0-8C7C-EB41-AEC2-C1A0804C65DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="1" xr2:uid="{BD1ABDBC-2963-914D-9A80-81D7223FC9B5}"/>
+    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{BD1ABDBC-2963-914D-9A80-81D7223FC9B5}"/>
   </bookViews>
   <sheets>
     <sheet name="gameMatrix" sheetId="3" r:id="rId1"/>
     <sheet name="levelMatrix" sheetId="2" r:id="rId2"/>
     <sheet name="dungeon" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -318,25 +318,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C04870B-6620-2147-9B45-2C896D213D2F}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,22 +663,22 @@
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="7" t="s">
         <v>38</v>
       </c>
@@ -722,10 +722,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -766,8 +766,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
         <v>51</v>
       </c>
@@ -806,8 +806,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
         <v>52</v>
       </c>
@@ -846,8 +846,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -888,8 +888,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
@@ -928,8 +928,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
@@ -968,8 +968,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1010,8 +1010,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
@@ -1050,8 +1050,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
@@ -1090,8 +1090,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1132,8 +1132,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="7" t="s">
         <v>51</v>
       </c>
@@ -1172,8 +1172,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
@@ -1212,10 +1212,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1256,8 +1256,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="7" t="s">
         <v>51</v>
       </c>
@@ -1296,8 +1296,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="7" t="s">
         <v>52</v>
       </c>
@@ -1336,8 +1336,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1378,8 +1378,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
@@ -1418,8 +1418,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -1458,8 +1458,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1500,8 +1500,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="7" t="s">
         <v>51</v>
       </c>
@@ -1540,8 +1540,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="7" t="s">
         <v>52</v>
       </c>
@@ -1580,10 +1580,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1624,8 +1624,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="7" t="s">
         <v>51</v>
       </c>
@@ -1664,8 +1664,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
@@ -1704,8 +1704,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1746,8 +1746,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="7" t="s">
         <v>51</v>
       </c>
@@ -1786,8 +1786,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="7" t="s">
         <v>52</v>
       </c>
@@ -1826,8 +1826,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1855,7 +1855,7 @@
         <v>100</v>
       </c>
       <c r="K30" s="7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L30" s="7">
         <v>80</v>
@@ -1868,8 +1868,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
@@ -1908,8 +1908,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="7" t="s">
         <v>50</v>
       </c>
@@ -1948,10 +1948,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="7" t="s">
         <v>51</v>
       </c>
@@ -2032,8 +2032,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="7" t="s">
         <v>52</v>
       </c>
@@ -2073,6 +2073,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="A15:A23"/>
@@ -2083,14 +2091,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F139B1A5-F60E-5C44-AEEC-5360DDC2383E}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2118,645 +2118,645 @@
     <col min="17" max="18" width="12.5" customWidth="1"/>
     <col min="21" max="21" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="9"/>
-    <col min="27" max="27" width="23.6640625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="23.1640625" style="9" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="8"/>
+    <col min="27" max="27" width="23.6640625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="23.1640625" style="8" customWidth="1"/>
     <col min="29" max="29" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="O1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="T1" s="13" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="T1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="T3" s="9">
-        <v>1</v>
-      </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="T3" s="8">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="J4" s="9">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="8">
         <v>2</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="O4" s="9">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="O4" s="8">
         <v>2</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="T4" s="9">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="T4" s="8">
         <v>2</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="J5" s="9">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="O5" s="9">
-        <v>3</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="T5" s="9">
-        <v>3</v>
-      </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8">
+        <v>3</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="T5" s="8">
+        <v>3</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="J6" s="9">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="J6" s="8">
         <v>4</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="O6" s="9">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8">
         <v>4</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="T6" s="9">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="T6" s="8">
         <v>4</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="J7" s="9">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="J7" s="8">
         <v>5</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="O7" s="9">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="O7" s="8">
         <v>5</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="T7" s="9">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="T7" s="8">
         <v>5</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="J8" s="9">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="8">
         <v>6</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="O8" s="9">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="O8" s="8">
         <v>6</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="T8" s="9">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="T8" s="8">
         <v>6</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="J9" s="9">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="J9" s="8">
         <v>7</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="O9" s="9">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8">
         <v>7</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="T9" s="9">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="T9" s="8">
         <v>7</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="J10" s="9">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="J10" s="8">
         <v>8</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="O10" s="9">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8">
         <v>8</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="T10" s="9">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="T10" s="8">
         <v>8</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="J11" s="9">
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="J11" s="8">
         <v>9</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="O11" s="9">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="O11" s="8">
         <v>9</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="T11" s="9">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="T11" s="8">
         <v>9</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="J12" s="9">
-        <v>10</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="O12" s="9">
-        <v>10</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="T12" s="9">
-        <v>10</v>
-      </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="J12" s="8">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="O12" s="8">
+        <v>10</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="8">
+        <v>10</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="B27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CourseCardSystem/CourseCardFramework/SimulatorRead.xlsx
+++ b/CourseCardSystem/CourseCardFramework/SimulatorRead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/CourseCardFramework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43120C0-8C7C-EB41-AEC2-C1A0804C65DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B64F463-F278-D049-A51B-AB6F88134A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{BD1ABDBC-2963-914D-9A80-81D7223FC9B5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="2" xr2:uid="{BD1ABDBC-2963-914D-9A80-81D7223FC9B5}"/>
   </bookViews>
   <sheets>
     <sheet name="gameMatrix" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
   <si>
     <t>Chapter</t>
   </si>
@@ -196,6 +196,90 @@
   </si>
   <si>
     <t>Albatross</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>主线关卡</t>
+  </si>
+  <si>
+    <t>支线关卡</t>
+  </si>
+  <si>
+    <t>par_ave_star</t>
+  </si>
+  <si>
+    <t>ave_star_upgrade_coin</t>
+  </si>
+  <si>
+    <t>ave_star_out_reward_diamond</t>
+  </si>
+  <si>
+    <t>star_ave_out_reaward_diamond</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>14-1</t>
+  </si>
+  <si>
+    <t>14-2</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>26-1</t>
+  </si>
+  <si>
+    <t>26-2</t>
+  </si>
+  <si>
+    <t>26-3</t>
+  </si>
+  <si>
+    <t>32-1</t>
+  </si>
+  <si>
+    <t>32-2</t>
+  </si>
+  <si>
+    <t>32-3</t>
+  </si>
+  <si>
+    <t>44-1</t>
+  </si>
+  <si>
+    <t>44-2</t>
+  </si>
+  <si>
+    <t>44-3</t>
+  </si>
+  <si>
+    <t>50-1</t>
+  </si>
+  <si>
+    <t>50-2</t>
+  </si>
+  <si>
+    <t>50-3</t>
+  </si>
+  <si>
+    <t>58-1</t>
+  </si>
+  <si>
+    <t>58-2</t>
   </si>
 </sst>
 </file>
@@ -218,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8470FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -325,6 +415,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -334,9 +427,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C04870B-6620-2147-9B45-2C896D213D2F}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -2073,14 +2167,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="A15:A23"/>
@@ -2091,6 +2177,14 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2098,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F139B1A5-F60E-5C44-AEEC-5360DDC2383E}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2110,651 +2204,1242 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="8" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" customWidth="1"/>
-    <col min="17" max="18" width="12.5" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="8"/>
-    <col min="27" max="27" width="23.6640625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="23.1640625" style="8" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="14" width="14" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="19" width="12.5" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="8"/>
+    <col min="28" max="28" width="23.6640625" style="8" customWidth="1"/>
+    <col min="29" max="29" width="23.1640625" style="8" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J1" s="13" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="O1" s="14" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="P1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="T1" s="14" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="U1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18">
+        <v>5</v>
+      </c>
+      <c r="G3" s="18">
+        <v>6</v>
+      </c>
+      <c r="H3" s="18">
+        <v>16000</v>
+      </c>
+      <c r="I3" s="18">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="O3" s="8">
-        <v>1</v>
-      </c>
-      <c r="P3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="T3" s="8">
-        <v>1</v>
-      </c>
-      <c r="U3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="U3" s="8">
+        <v>1</v>
+      </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="J4" s="8">
-        <v>2</v>
-      </c>
-      <c r="K4" s="8"/>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>6</v>
+      </c>
+      <c r="H4" s="18">
+        <v>16000</v>
+      </c>
+      <c r="I4" s="18">
+        <v>36</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="O4" s="8">
-        <v>2</v>
-      </c>
-      <c r="P4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="P4" s="8">
+        <v>2</v>
+      </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="T4" s="8">
-        <v>2</v>
-      </c>
-      <c r="U4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="U4" s="8">
+        <v>2</v>
+      </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="J5" s="8">
-        <v>3</v>
-      </c>
-      <c r="K5" s="8"/>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>7</v>
+      </c>
+      <c r="G5" s="18">
+        <v>10</v>
+      </c>
+      <c r="H5" s="18">
+        <v>16000</v>
+      </c>
+      <c r="I5" s="18">
+        <v>36</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="O5" s="8">
-        <v>3</v>
-      </c>
-      <c r="P5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="P5" s="8">
+        <v>3</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="T5" s="8">
-        <v>3</v>
-      </c>
-      <c r="U5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="U5" s="8">
+        <v>3</v>
+      </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="J6" s="8">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>7</v>
+      </c>
+      <c r="G6" s="18">
+        <v>10</v>
+      </c>
+      <c r="H6" s="18">
+        <v>16000</v>
+      </c>
+      <c r="I6" s="18">
+        <v>36</v>
+      </c>
+      <c r="K6" s="8">
         <v>4</v>
       </c>
-      <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="O6" s="8">
+      <c r="N6" s="8"/>
+      <c r="P6" s="8">
         <v>4</v>
       </c>
-      <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="T6" s="8">
+      <c r="S6" s="8"/>
+      <c r="U6" s="8">
         <v>4</v>
       </c>
-      <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="J7" s="8">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>7</v>
+      </c>
+      <c r="G7" s="18">
+        <v>10</v>
+      </c>
+      <c r="H7" s="18">
+        <v>16000</v>
+      </c>
+      <c r="I7" s="18">
+        <v>36</v>
+      </c>
+      <c r="K7" s="8">
         <v>5</v>
       </c>
-      <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="O7" s="8">
+      <c r="N7" s="8"/>
+      <c r="P7" s="8">
         <v>5</v>
       </c>
-      <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="T7" s="8">
+      <c r="S7" s="8"/>
+      <c r="U7" s="8">
         <v>5</v>
       </c>
-      <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
       <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="J8" s="8">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18">
+        <v>7</v>
+      </c>
+      <c r="G8" s="18">
+        <v>10</v>
+      </c>
+      <c r="H8" s="18">
+        <v>16000</v>
+      </c>
+      <c r="I8" s="18">
+        <v>36</v>
+      </c>
+      <c r="K8" s="8">
         <v>6</v>
       </c>
-      <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="O8" s="8">
+      <c r="N8" s="8"/>
+      <c r="P8" s="8">
         <v>6</v>
       </c>
-      <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="T8" s="8">
+      <c r="S8" s="8"/>
+      <c r="U8" s="8">
         <v>6</v>
       </c>
-      <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="J9" s="8">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10</v>
+      </c>
+      <c r="G9" s="18">
+        <v>14</v>
+      </c>
+      <c r="H9" s="18">
+        <v>16000</v>
+      </c>
+      <c r="I9" s="18">
+        <v>36</v>
+      </c>
+      <c r="K9" s="8">
         <v>7</v>
       </c>
-      <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="O9" s="8">
+      <c r="N9" s="8"/>
+      <c r="P9" s="8">
         <v>7</v>
       </c>
-      <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="T9" s="8">
+      <c r="S9" s="8"/>
+      <c r="U9" s="8">
         <v>7</v>
       </c>
-      <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="J10" s="8">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18">
+        <v>10</v>
+      </c>
+      <c r="G10" s="18">
+        <v>14</v>
+      </c>
+      <c r="H10" s="18">
+        <v>16000</v>
+      </c>
+      <c r="I10" s="18">
+        <v>36</v>
+      </c>
+      <c r="K10" s="8">
         <v>8</v>
       </c>
-      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="O10" s="8">
+      <c r="N10" s="8"/>
+      <c r="P10" s="8">
         <v>8</v>
       </c>
-      <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="T10" s="8">
+      <c r="S10" s="8"/>
+      <c r="U10" s="8">
         <v>8</v>
       </c>
-      <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="J11" s="8">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18">
+        <v>6</v>
+      </c>
+      <c r="G11" s="18">
+        <v>8</v>
+      </c>
+      <c r="H11" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I11" s="18">
+        <v>70</v>
+      </c>
+      <c r="K11" s="8">
         <v>9</v>
       </c>
-      <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="O11" s="8">
+      <c r="N11" s="8"/>
+      <c r="P11" s="8">
         <v>9</v>
       </c>
-      <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="T11" s="8">
+      <c r="S11" s="8"/>
+      <c r="U11" s="8">
         <v>9</v>
       </c>
-      <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="J12" s="8">
-        <v>10</v>
-      </c>
-      <c r="K12" s="8"/>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>6</v>
+      </c>
+      <c r="G12" s="18">
+        <v>8</v>
+      </c>
+      <c r="H12" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I12" s="18">
+        <v>70</v>
+      </c>
+      <c r="K12" s="8">
+        <v>10</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="O12" s="8">
-        <v>10</v>
-      </c>
-      <c r="P12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="P12" s="8">
+        <v>10</v>
+      </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="T12" s="8">
-        <v>10</v>
-      </c>
-      <c r="U12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="U12" s="8">
+        <v>10</v>
+      </c>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4</v>
+      </c>
+      <c r="F13" s="18">
+        <v>9</v>
+      </c>
+      <c r="G13" s="18">
+        <v>12</v>
+      </c>
+      <c r="H13" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I13" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" s="18">
+        <v>9</v>
+      </c>
+      <c r="G14" s="18">
+        <v>12</v>
+      </c>
+      <c r="H14" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I14" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4</v>
+      </c>
+      <c r="F15" s="18">
+        <v>9</v>
+      </c>
+      <c r="G15" s="18">
+        <v>12</v>
+      </c>
+      <c r="H15" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I15" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18">
+        <v>9</v>
+      </c>
+      <c r="G16" s="18">
+        <v>12</v>
+      </c>
+      <c r="H16" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I16" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>5</v>
+      </c>
+      <c r="F17" s="18">
+        <v>12</v>
+      </c>
+      <c r="G17" s="18">
+        <v>16</v>
+      </c>
+      <c r="H17" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I17" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="18">
+        <v>12</v>
+      </c>
+      <c r="G18" s="18">
+        <v>16</v>
+      </c>
+      <c r="H18" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I18" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="18">
+        <v>8</v>
+      </c>
+      <c r="G19" s="18">
+        <v>10</v>
+      </c>
+      <c r="H19" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I19" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18">
+        <v>8</v>
+      </c>
+      <c r="G20" s="18">
+        <v>10</v>
+      </c>
+      <c r="H20" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I20" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>5</v>
+      </c>
+      <c r="F21" s="18">
+        <v>11</v>
+      </c>
+      <c r="G21" s="18">
+        <v>14</v>
+      </c>
+      <c r="H21" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I21" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18">
+        <v>11</v>
+      </c>
+      <c r="G22" s="18">
+        <v>14</v>
+      </c>
+      <c r="H22" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I22" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9">
+        <v>5</v>
+      </c>
+      <c r="F23" s="18">
+        <v>11</v>
+      </c>
+      <c r="G23" s="18">
+        <v>14</v>
+      </c>
+      <c r="H23" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I23" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
       <c r="B24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>5</v>
+      </c>
+      <c r="F24" s="18">
+        <v>11</v>
+      </c>
+      <c r="G24" s="18">
+        <v>14</v>
+      </c>
+      <c r="H24" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I24" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>7</v>
+      </c>
+      <c r="F25" s="18">
+        <v>14</v>
+      </c>
+      <c r="G25" s="18">
+        <v>18</v>
+      </c>
+      <c r="H25" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I25" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>7</v>
+      </c>
+      <c r="F26" s="18">
+        <v>14</v>
+      </c>
+      <c r="G26" s="18">
+        <v>18</v>
+      </c>
+      <c r="H26" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I26" s="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>5</v>
+      </c>
+      <c r="F27" s="18">
+        <v>10</v>
+      </c>
+      <c r="G27" s="18">
+        <v>12</v>
+      </c>
+      <c r="H27" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I27" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>5</v>
+      </c>
+      <c r="F28" s="18">
+        <v>10</v>
+      </c>
+      <c r="G28" s="18">
+        <v>12</v>
+      </c>
+      <c r="H28" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I28" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
       <c r="B29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9">
+        <v>7</v>
+      </c>
+      <c r="F29" s="18">
+        <v>13</v>
+      </c>
+      <c r="G29" s="18">
+        <v>16</v>
+      </c>
+      <c r="H29" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I29" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9">
+        <v>7</v>
+      </c>
+      <c r="F30" s="18">
+        <v>13</v>
+      </c>
+      <c r="G30" s="18">
+        <v>16</v>
+      </c>
+      <c r="H30" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I30" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
       <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>7</v>
+      </c>
+      <c r="F31" s="18">
+        <v>13</v>
+      </c>
+      <c r="G31" s="18">
+        <v>16</v>
+      </c>
+      <c r="H31" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I31" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
       <c r="B32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9">
+        <v>7</v>
+      </c>
+      <c r="F32" s="18">
+        <v>13</v>
+      </c>
+      <c r="G32" s="18">
+        <v>16</v>
+      </c>
+      <c r="H32" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I32" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
       <c r="B33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>8</v>
+      </c>
+      <c r="F33" s="18">
+        <v>16</v>
+      </c>
+      <c r="G33" s="18">
+        <v>20</v>
+      </c>
+      <c r="H33" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I33" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
       <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2</v>
+      </c>
+      <c r="E34" s="18">
+        <v>8</v>
+      </c>
+      <c r="F34" s="18">
+        <v>16</v>
+      </c>
+      <c r="G34" s="18">
+        <v>20</v>
+      </c>
+      <c r="H34" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I34" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="A27:A34"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A18"/>
   </mergeCells>
@@ -2764,1063 +3449,3444 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0319B6B6-A8CF-384E-A495-DD87D0173F85}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M1">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C4,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(C4,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP(C4,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP(C4,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP(C4,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f>VLOOKUP(C4,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L4">
+        <f>VLOOKUP(C4,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C5,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(C5,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP(C5,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP(C5,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f>VLOOKUP(C5,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <f>VLOOKUP(C5,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L5">
+        <f>VLOOKUP(C5,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(C6,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(C6,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP(C6,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(C6,levelMatrix!$B$2:$I$10,5,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="J6">
+        <f>VLOOKUP(C6,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <f>VLOOKUP(C6,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(C6,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(C7,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(C7,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP(C7,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP(C7,levelMatrix!$B$2:$I$10,5,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="J7">
+        <f>VLOOKUP(C7,levelMatrix!$B$2:$I$10,6,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="K7">
+        <f>VLOOKUP(C7,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP(C7,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(C8,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(C8,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(C8,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP(C8,levelMatrix!$B$2:$I$10,5,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="J8">
+        <f>VLOOKUP(C8,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <f>VLOOKUP(C8,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L8">
+        <f>VLOOKUP(C8,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(C9,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(C9,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP(C9,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP(C9,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f>VLOOKUP(C9,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f>VLOOKUP(C9,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L9">
+        <f>VLOOKUP(C9,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(C10,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(C10,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(C10,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP(C10,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <f>VLOOKUP(C10,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f>VLOOKUP(C10,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L10">
+        <f>VLOOKUP(C10,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(C11,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(C11,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP(C11,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP(C11,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <f>VLOOKUP(C11,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f>VLOOKUP(C11,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(C11,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11">
+        <f>VLOOKUP(N11,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>VLOOKUP(N11,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f>VLOOKUP(N11,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <f>VLOOKUP(N11,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <f>VLOOKUP(N11,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="V11">
+        <f>VLOOKUP(N11,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="W11">
+        <f>VLOOKUP(N11,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C12,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(C12,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(C12,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP(C12,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f>VLOOKUP(C12,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f>VLOOKUP(C12,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L12">
+        <f>VLOOKUP(C12,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12">
+        <f>VLOOKUP(N12,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>VLOOKUP(N12,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>VLOOKUP(N12,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <f>VLOOKUP(N12,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <f>VLOOKUP(N12,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="V12">
+        <f>VLOOKUP(N12,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="W12">
+        <f>VLOOKUP(N12,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C13,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(C13,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP(C13,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP(C13,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <f>VLOOKUP(C13,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <f>VLOOKUP(C13,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP(C13,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13">
+        <f>VLOOKUP(N13,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>VLOOKUP(N13,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f>VLOOKUP(N13,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <f>VLOOKUP(N13,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <f>VLOOKUP(N13,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="V13">
+        <f>VLOOKUP(N13,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="W13">
+        <f>VLOOKUP(N13,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(C14,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(C14,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP(C14,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP(C14,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <f>VLOOKUP(C14,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <f>VLOOKUP(C14,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L14">
+        <f>VLOOKUP(C14,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(C15,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(C15,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP(C15,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP(C15,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <f>VLOOKUP(C15,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f>VLOOKUP(C15,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP(C15,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
         <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C16,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(C16,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP(C16,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP(C16,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <f>VLOOKUP(C16,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <f>VLOOKUP(C16,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP(C16,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(C17,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(C17,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(C17,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f>VLOOKUP(C17,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <f>VLOOKUP(C17,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <f>VLOOKUP(C17,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L17">
+        <f>VLOOKUP(C17,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17">
+        <f>VLOOKUP(N17,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>VLOOKUP(N17,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f>VLOOKUP(N17,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <f>VLOOKUP(N17,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <f>VLOOKUP(N17,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="V17">
+        <f>VLOOKUP(N17,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="W17">
+        <f>VLOOKUP(N17,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(C18,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(C18,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>VLOOKUP(C18,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f>VLOOKUP(C18,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <f>VLOOKUP(C18,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <f>VLOOKUP(C18,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L18">
+        <f>VLOOKUP(C18,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18">
+        <f>VLOOKUP(N18,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>VLOOKUP(N18,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f>VLOOKUP(N18,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <f>VLOOKUP(N18,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <f>VLOOKUP(N18,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="V18">
+        <f>VLOOKUP(N18,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="W18">
+        <f>VLOOKUP(N18,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(C19,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(C19,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f>VLOOKUP(C19,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <f>VLOOKUP(C19,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <f>VLOOKUP(C19,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <f>VLOOKUP(C19,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L19">
+        <f>VLOOKUP(C19,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19">
+        <f>VLOOKUP(N19,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>VLOOKUP(N19,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f>VLOOKUP(N19,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <f>VLOOKUP(N19,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <f>VLOOKUP(N19,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="V19">
+        <f>VLOOKUP(N19,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="W19">
+        <f>VLOOKUP(N19,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP(C20,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(C20,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>VLOOKUP(C20,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f>VLOOKUP(C20,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <f>VLOOKUP(C20,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <f>VLOOKUP(C20,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L20">
+        <f>VLOOKUP(C20,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP(C21,levelMatrix!$B$2:$I$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(C21,levelMatrix!$B$2:$I$10,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f>VLOOKUP(C21,levelMatrix!$B$2:$I$10,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f>VLOOKUP(C21,levelMatrix!$B$2:$I$10,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <f>VLOOKUP(C21,levelMatrix!$B$2:$I$10,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <f>VLOOKUP(C21,levelMatrix!$B$2:$I$10,7,FALSE)</f>
+        <v>16000</v>
+      </c>
+      <c r="L21">
+        <f>VLOOKUP(C21,levelMatrix!$B$2:$I$10,8,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
+      <c r="C22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="F22">
+        <f>VLOOKUP(C22,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(C22,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f>VLOOKUP(C22,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f>VLOOKUP(C22,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <f>VLOOKUP(C22,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <f>VLOOKUP(C22,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L22">
+        <f>VLOOKUP(C22,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
         <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(C23,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(C23,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f>VLOOKUP(C23,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <f>VLOOKUP(C23,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f>VLOOKUP(C23,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <f>VLOOKUP(C23,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L23">
+        <f>VLOOKUP(C23,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
+      <c r="F24">
+        <f>VLOOKUP(C24,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(C24,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f>VLOOKUP(C24,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f>VLOOKUP(C24,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <f>VLOOKUP(C24,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <f>VLOOKUP(C24,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L24">
+        <f>VLOOKUP(C24,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C25,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(C25,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f>VLOOKUP(C25,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <f>VLOOKUP(C25,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <f>VLOOKUP(C25,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <f>VLOOKUP(C25,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP(C25,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C26,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(C26,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>VLOOKUP(C26,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f>VLOOKUP(C26,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <f>VLOOKUP(C26,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <f>VLOOKUP(C26,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(C26,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C27,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP(C27,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f>VLOOKUP(C27,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <f>VLOOKUP(C27,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <f>VLOOKUP(C27,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <f>VLOOKUP(C27,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(C27,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C28,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP(C28,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f>VLOOKUP(C28,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f>VLOOKUP(C28,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J28">
+        <f>VLOOKUP(C28,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <f>VLOOKUP(C28,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(C28,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C29,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(C29,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP(C29,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f>VLOOKUP(C29,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <f>VLOOKUP(C29,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <f>VLOOKUP(C29,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP(C29,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29">
+        <f>VLOOKUP(N29,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>VLOOKUP(N29,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <f>VLOOKUP(N29,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <f>VLOOKUP(N29,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <f>VLOOKUP(N29,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="V29">
+        <f>VLOOKUP(N29,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="W29">
+        <f>VLOOKUP(N29,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C30,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(C30,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f>VLOOKUP(C30,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <f>VLOOKUP(C30,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <f>VLOOKUP(C30,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <f>VLOOKUP(C30,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L30">
+        <f>VLOOKUP(C30,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30">
+        <f>VLOOKUP(N30,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>VLOOKUP(N30,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f>VLOOKUP(N30,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <f>VLOOKUP(N30,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="U30">
+        <f>VLOOKUP(N30,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="V30">
+        <f>VLOOKUP(N30,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="W30">
+        <f>VLOOKUP(N30,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C31,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP(C31,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>VLOOKUP(C31,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <f>VLOOKUP(C31,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <f>VLOOKUP(C31,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <f>VLOOKUP(C31,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L31">
+        <f>VLOOKUP(C31,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31">
+        <f>VLOOKUP(N31,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>VLOOKUP(N31,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f>VLOOKUP(N31,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <f>VLOOKUP(N31,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="U31">
+        <f>VLOOKUP(N31,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="V31">
+        <f>VLOOKUP(N31,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="W31">
+        <f>VLOOKUP(N31,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(C32,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP(C32,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f>VLOOKUP(C32,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f>VLOOKUP(C32,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <f>VLOOKUP(C32,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <f>VLOOKUP(C32,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L32">
+        <f>VLOOKUP(C32,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP(C33,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP(C33,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f>VLOOKUP(C33,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f>VLOOKUP(C33,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <f>VLOOKUP(C33,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <f>VLOOKUP(C33,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L33">
+        <f>VLOOKUP(C33,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>5</v>
+      <c r="C34" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C34,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP(C34,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f>VLOOKUP(C34,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f>VLOOKUP(C34,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <f>VLOOKUP(C34,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <f>VLOOKUP(C34,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L34">
+        <f>VLOOKUP(C34,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C35,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP(C35,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f>VLOOKUP(C35,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f>VLOOKUP(C35,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <f>VLOOKUP(C35,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <f>VLOOKUP(C35,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L35">
+        <f>VLOOKUP(C35,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="N35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35">
+        <f>VLOOKUP(N35,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>VLOOKUP(N35,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <f>VLOOKUP(N35,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <f>VLOOKUP(N35,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="U35">
+        <f>VLOOKUP(N35,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="V35">
+        <f>VLOOKUP(N35,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="W35">
+        <f>VLOOKUP(N35,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C36,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>VLOOKUP(C36,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f>VLOOKUP(C36,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <f>VLOOKUP(C36,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <f>VLOOKUP(C36,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K36">
+        <f>VLOOKUP(C36,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L36">
+        <f>VLOOKUP(C36,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="N36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36">
+        <f>VLOOKUP(N36,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>VLOOKUP(N36,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <f>VLOOKUP(N36,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <f>VLOOKUP(N36,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="U36">
+        <f>VLOOKUP(N36,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="V36">
+        <f>VLOOKUP(N36,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="W36">
+        <f>VLOOKUP(N36,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C37,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>VLOOKUP(C37,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>VLOOKUP(C37,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <f>VLOOKUP(C37,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <f>VLOOKUP(C37,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K37">
+        <f>VLOOKUP(C37,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L37">
+        <f>VLOOKUP(C37,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="N37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q37">
+        <f>VLOOKUP(N37,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>VLOOKUP(N37,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <f>VLOOKUP(N37,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <f>VLOOKUP(N37,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="U37">
+        <f>VLOOKUP(N37,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="V37">
+        <f>VLOOKUP(N37,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="W37">
+        <f>VLOOKUP(N37,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP(C38,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>VLOOKUP(C38,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f>VLOOKUP(C38,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f>VLOOKUP(C38,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <f>VLOOKUP(C38,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <f>VLOOKUP(C38,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L38">
+        <f>VLOOKUP(C38,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <f>VLOOKUP(C39,levelMatrix!$B$11:$I$18,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>VLOOKUP(C39,levelMatrix!$B$11:$I$18,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f>VLOOKUP(C39,levelMatrix!$B$11:$I$18,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <f>VLOOKUP(C39,levelMatrix!$B$11:$I$18,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <f>VLOOKUP(C39,levelMatrix!$B$11:$I$18,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <f>VLOOKUP(C39,levelMatrix!$B$11:$I$18,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="L39">
+        <f>VLOOKUP(C39,levelMatrix!$B$11:$I$18,8,FALSE)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38">
+      <c r="C40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
         <v>7</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="F40">
+        <f>VLOOKUP(C40,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f>VLOOKUP(C40,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f>VLOOKUP(C40,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <f>VLOOKUP(C40,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <f>VLOOKUP(C40,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <f>VLOOKUP(C40,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L40">
+        <f>VLOOKUP(C40,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3">
         <v>38</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" s="3">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3">
-        <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <f>VLOOKUP(C41,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f>VLOOKUP(C41,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <f>VLOOKUP(C41,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <f>VLOOKUP(C41,levelMatrix!$B$19:$I$26,5,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f>VLOOKUP(C41,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <f>VLOOKUP(C41,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L41">
+        <f>VLOOKUP(C41,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42" s="3">
-        <v>41</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C42,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f>VLOOKUP(C42,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <f>VLOOKUP(C42,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <f>VLOOKUP(C42,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <f>VLOOKUP(C42,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <f>VLOOKUP(C42,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L42">
+        <f>VLOOKUP(C42,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" s="3">
-        <v>42</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D43">
         <v>8</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C43,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f>VLOOKUP(C43,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f>VLOOKUP(C43,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <f>VLOOKUP(C43,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <f>VLOOKUP(C43,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <f>VLOOKUP(C43,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L43">
+        <f>VLOOKUP(C43,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C44,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>VLOOKUP(C44,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f>VLOOKUP(C44,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <f>VLOOKUP(C44,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J44">
+        <f>VLOOKUP(C44,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K44">
+        <f>VLOOKUP(C44,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L44">
+        <f>VLOOKUP(C44,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C45,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>VLOOKUP(C45,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f>VLOOKUP(C45,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <f>VLOOKUP(C45,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J45">
+        <f>VLOOKUP(C45,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K45">
+        <f>VLOOKUP(C45,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L45">
+        <f>VLOOKUP(C45,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C46,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>VLOOKUP(C46,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <f>VLOOKUP(C46,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <f>VLOOKUP(C46,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J46">
+        <f>VLOOKUP(C46,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <f>VLOOKUP(C46,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L46">
+        <f>VLOOKUP(C46,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>8</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C47,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>VLOOKUP(C47,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <f>VLOOKUP(C47,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <f>VLOOKUP(C47,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J47">
+        <f>VLOOKUP(C47,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <f>VLOOKUP(C47,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L47">
+        <f>VLOOKUP(C47,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="N47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q47">
+        <f>VLOOKUP(N47,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f>VLOOKUP(N47,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <f>VLOOKUP(N47,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <f>VLOOKUP(N47,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="U47">
+        <f>VLOOKUP(N47,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="V47">
+        <f>VLOOKUP(N47,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="W47">
+        <f>VLOOKUP(N47,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C48,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>VLOOKUP(C48,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <f>VLOOKUP(C48,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <f>VLOOKUP(C48,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <f>VLOOKUP(C48,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K48">
+        <f>VLOOKUP(C48,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L48">
+        <f>VLOOKUP(C48,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="N48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q48">
+        <f>VLOOKUP(N48,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f>VLOOKUP(N48,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <f>VLOOKUP(N48,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <f>VLOOKUP(N48,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="U48">
+        <f>VLOOKUP(N48,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="V48">
+        <f>VLOOKUP(N48,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="W48">
+        <f>VLOOKUP(N48,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
       <c r="B49" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C49,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>VLOOKUP(C49,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <f>VLOOKUP(C49,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <f>VLOOKUP(C49,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J49">
+        <f>VLOOKUP(C49,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K49">
+        <f>VLOOKUP(C49,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L49">
+        <f>VLOOKUP(C49,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="N49" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49">
+        <v>9</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q49">
+        <f>VLOOKUP(N49,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f>VLOOKUP(N49,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <f>VLOOKUP(N49,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <f>VLOOKUP(N49,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="U49">
+        <f>VLOOKUP(N49,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="V49">
+        <f>VLOOKUP(N49,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="W49">
+        <f>VLOOKUP(N49,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
       <c r="B50" s="3">
+        <v>47</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <f>VLOOKUP(C50,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>VLOOKUP(C50,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <f>VLOOKUP(C50,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <f>VLOOKUP(C50,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J50">
+        <f>VLOOKUP(C50,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K50">
+        <f>VLOOKUP(C50,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L50">
+        <f>VLOOKUP(C50,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3">
+        <v>48</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <f>VLOOKUP(C51,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>VLOOKUP(C51,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <f>VLOOKUP(C51,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f>VLOOKUP(C51,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J51">
+        <f>VLOOKUP(C51,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K51">
+        <f>VLOOKUP(C51,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L51">
+        <f>VLOOKUP(C51,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" s="3">
-        <v>50</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>9</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" s="3">
-        <v>51</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>5</v>
+      <c r="C52" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D52">
         <v>9</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C52,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f>VLOOKUP(C52,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <f>VLOOKUP(C52,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <f>VLOOKUP(C52,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <f>VLOOKUP(C52,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <f>VLOOKUP(C52,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L52">
+        <f>VLOOKUP(C52,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="3">
-        <v>52</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D53">
         <v>9</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C53,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f>VLOOKUP(C53,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <f>VLOOKUP(C53,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <f>VLOOKUP(C53,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <f>VLOOKUP(C53,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <f>VLOOKUP(C53,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L53">
+        <f>VLOOKUP(C53,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="N53" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q53">
+        <f>VLOOKUP(N53,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f>VLOOKUP(N53,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <f>VLOOKUP(N53,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="T53">
+        <f>VLOOKUP(N53,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="U53">
+        <f>VLOOKUP(N53,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="V53">
+        <f>VLOOKUP(N53,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="W53">
+        <f>VLOOKUP(N53,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>9</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C54,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>VLOOKUP(C54,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <f>VLOOKUP(C54,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <f>VLOOKUP(C54,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <f>VLOOKUP(C54,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K54">
+        <f>VLOOKUP(C54,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L54">
+        <f>VLOOKUP(C54,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="N54" t="s">
+        <v>15</v>
+      </c>
+      <c r="O54">
+        <v>8</v>
+      </c>
+      <c r="P54" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q54">
+        <f>VLOOKUP(N54,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f>VLOOKUP(N54,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <f>VLOOKUP(N54,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="T54">
+        <f>VLOOKUP(N54,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="U54">
+        <f>VLOOKUP(N54,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="V54">
+        <f>VLOOKUP(N54,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="W54">
+        <f>VLOOKUP(N54,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C55,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>VLOOKUP(C55,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <f>VLOOKUP(C55,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <f>VLOOKUP(C55,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J55">
+        <f>VLOOKUP(C55,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K55">
+        <f>VLOOKUP(C55,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L55">
+        <f>VLOOKUP(C55,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="N55" t="s">
+        <v>15</v>
+      </c>
+      <c r="O55">
+        <v>9</v>
+      </c>
+      <c r="P55" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q55">
+        <f>VLOOKUP(N55,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f>VLOOKUP(N55,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <f>VLOOKUP(N55,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="T55">
+        <f>VLOOKUP(N55,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="U55">
+        <f>VLOOKUP(N55,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="V55">
+        <f>VLOOKUP(N55,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="W55">
+        <f>VLOOKUP(N55,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56" s="4">
-        <v>55</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
+        <v>53</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C56,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>VLOOKUP(C56,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <f>VLOOKUP(C56,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <f>VLOOKUP(C56,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J56">
+        <f>VLOOKUP(C56,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K56">
+        <f>VLOOKUP(C56,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L56">
+        <f>VLOOKUP(C56,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4">
-        <v>56</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B57" s="3">
+        <v>54</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C57,levelMatrix!$B$19:$I$26,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>VLOOKUP(C57,levelMatrix!$B$19:$I$26,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <f>VLOOKUP(C57,levelMatrix!$B$19:$I$26,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <f>VLOOKUP(C57,levelMatrix!$B$19:$I$26,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="J57">
+        <f>VLOOKUP(C57,levelMatrix!$B$19:$I$26,6,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K57">
+        <f>VLOOKUP(C57,levelMatrix!$B$19:$I$26,7,FALSE)</f>
+        <v>90000</v>
+      </c>
+      <c r="L57">
+        <f>VLOOKUP(C57,levelMatrix!$B$19:$I$26,8,FALSE)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4</v>
       </c>
       <c r="B58" s="4">
-        <v>57</v>
-      </c>
-      <c r="C58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <f>VLOOKUP(C58,levelMatrix!$B$27:$I$34,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f>VLOOKUP(C58,levelMatrix!$B$27:$I$34,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <f>VLOOKUP(C58,levelMatrix!$B$27:$I$34,4,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="D58">
-        <v>10</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f>VLOOKUP(C58,levelMatrix!$B$27:$I$34,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <f>VLOOKUP(C58,levelMatrix!$B$27:$I$34,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <f>VLOOKUP(C58,levelMatrix!$B$27:$I$34,7,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="L58">
+        <f>VLOOKUP(C58,levelMatrix!$B$27:$I$34,8,FALSE)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
       <c r="B59" s="4">
-        <v>58</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D59">
         <v>10</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(C59,levelMatrix!$B$27:$I$34,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f>VLOOKUP(C59,levelMatrix!$B$27:$I$34,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <f>VLOOKUP(C59,levelMatrix!$B$27:$I$34,4,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <f>VLOOKUP(C59,levelMatrix!$B$27:$I$34,5,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <f>VLOOKUP(C59,levelMatrix!$B$27:$I$34,6,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <f>VLOOKUP(C59,levelMatrix!$B$27:$I$34,7,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="L59">
+        <f>VLOOKUP(C59,levelMatrix!$B$27:$I$34,8,FALSE)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP(C60,levelMatrix!$B$27:$I$34,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>VLOOKUP(C60,levelMatrix!$B$27:$I$34,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <f>VLOOKUP(C60,levelMatrix!$B$27:$I$34,4,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f>VLOOKUP(C60,levelMatrix!$B$27:$I$34,5,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="J60">
+        <f>VLOOKUP(C60,levelMatrix!$B$27:$I$34,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="K60">
+        <f>VLOOKUP(C60,levelMatrix!$B$27:$I$34,7,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="L60">
+        <f>VLOOKUP(C60,levelMatrix!$B$27:$I$34,8,FALSE)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61" s="4">
+        <v>58</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <f>VLOOKUP(C61,levelMatrix!$B$27:$I$34,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>VLOOKUP(C61,levelMatrix!$B$27:$I$34,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <f>VLOOKUP(C61,levelMatrix!$B$27:$I$34,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <f>VLOOKUP(C61,levelMatrix!$B$27:$I$34,5,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="J61">
+        <f>VLOOKUP(C61,levelMatrix!$B$27:$I$34,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="K61">
+        <f>VLOOKUP(C61,levelMatrix!$B$27:$I$34,7,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="L61">
+        <f>VLOOKUP(C61,levelMatrix!$B$27:$I$34,8,FALSE)</f>
+        <v>260</v>
+      </c>
+      <c r="N61" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q61">
+        <f>VLOOKUP(N61,levelMatrix!$B$27:$I$34,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f>VLOOKUP(N61,levelMatrix!$B$27:$I$34,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <f>VLOOKUP(N61,levelMatrix!$B$27:$I$34,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="T61">
+        <f>VLOOKUP(N61,levelMatrix!$B$27:$I$34,5,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="U61">
+        <f>VLOOKUP(N61,levelMatrix!$B$27:$I$34,6,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="V61">
+        <f>VLOOKUP(N61,levelMatrix!$B$27:$I$34,7,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="W61">
+        <f>VLOOKUP(N61,levelMatrix!$B$27:$I$34,8,FALSE)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4">
+        <v>59</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <f>VLOOKUP(C62,levelMatrix!$B$27:$I$34,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>VLOOKUP(C62,levelMatrix!$B$27:$I$34,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <f>VLOOKUP(C62,levelMatrix!$B$27:$I$34,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="I62">
+        <f>VLOOKUP(C62,levelMatrix!$B$27:$I$34,5,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="J62">
+        <f>VLOOKUP(C62,levelMatrix!$B$27:$I$34,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="K62">
+        <f>VLOOKUP(C62,levelMatrix!$B$27:$I$34,7,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="L62">
+        <f>VLOOKUP(C62,levelMatrix!$B$27:$I$34,8,FALSE)</f>
+        <v>260</v>
+      </c>
+      <c r="N62" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q62">
+        <f>VLOOKUP(N62,levelMatrix!$B$27:$I$34,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f>VLOOKUP(N62,levelMatrix!$B$27:$I$34,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <f>VLOOKUP(N62,levelMatrix!$B$27:$I$34,4,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="T62">
+        <f>VLOOKUP(N62,levelMatrix!$B$27:$I$34,5,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="U62">
+        <f>VLOOKUP(N62,levelMatrix!$B$27:$I$34,6,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="V62">
+        <f>VLOOKUP(N62,levelMatrix!$B$27:$I$34,7,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="W62">
+        <f>VLOOKUP(N62,levelMatrix!$B$27:$I$34,8,FALSE)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" s="4">
         <v>60</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP(C63,levelMatrix!$B$27:$I$34,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f>VLOOKUP(C63,levelMatrix!$B$27:$I$34,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <f>VLOOKUP(C63,levelMatrix!$B$27:$I$34,4,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <f>VLOOKUP(C63,levelMatrix!$B$27:$I$34,5,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="J63">
+        <f>VLOOKUP(C63,levelMatrix!$B$27:$I$34,6,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="K63">
+        <f>VLOOKUP(C63,levelMatrix!$B$27:$I$34,7,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="L63">
+        <f>VLOOKUP(C63,levelMatrix!$B$27:$I$34,8,FALSE)</f>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
